--- a/genshin/539403314917438466_2021-06-23_14-00-21.xlsx
+++ b/genshin/539403314917438466_2021-06-23_14-00-21.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4778057124</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-06-28 16:14:00</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44375.67638888889</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>4803931608</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-06-27 23:07:46</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44374.96372685185</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -677,10 +689,8 @@
           <t>4803931608</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-06-27 23:06:21</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44374.96274305556</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -744,10 +754,8 @@
           <t>4803931608</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-06-27 23:04:56</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44374.96175925926</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -815,10 +823,8 @@
           <t>4803931608</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-06-27 22:46:38</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44374.94905092593</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -882,10 +888,8 @@
           <t>4803914514</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-06-27 22:45:36</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44374.94833333333</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -949,10 +953,8 @@
           <t>4801195830</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-06-27 14:53:59</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44374.62082175926</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1020,10 +1022,8 @@
           <t>4778293685</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-06-27 11:07:42</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44374.46368055556</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1091,10 +1091,8 @@
           <t>4797260707</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-06-27 07:49:45</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44374.32621527778</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1158,10 +1156,8 @@
           <t>4797260707</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-06-27 07:33:14</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44374.31474537037</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1230,10 +1226,8 @@
           <t>4778293685</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-06-26 23:06:30</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44373.96284722222</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1309,10 +1303,8 @@
           <t>4797260707</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-06-26 21:35:19</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44373.89952546296</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1380,10 +1372,8 @@
           <t>4797260707</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-06-26 21:33:57</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44373.89857638889</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1447,10 +1437,8 @@
           <t>4797260707</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-06-26 21:32:47</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44373.89776620371</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1518,10 +1506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-06-26 20:02:24</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44373.835</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1585,10 +1571,8 @@
           <t>4793977384</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-06-26 11:37:01</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44373.48403935185</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1656,10 +1640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:19:52</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44372.7637962963</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1723,10 +1705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:21:28</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44372.72324074074</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1794,10 +1774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:16:06</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44372.51118055556</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1871,10 +1849,8 @@
           <t>4779700194</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:00:31</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44372.50035879629</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1938,10 +1914,8 @@
           <t>4787846805</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-06-25 10:55:23</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44372.45512731482</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2005,10 +1979,8 @@
           <t>4780854122</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-06-24 23:07:23</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44371.96346064815</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2076,10 +2048,8 @@
           <t>4780854122</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-06-24 23:04:08</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44371.9612037037</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2147,10 +2117,8 @@
           <t>4780854122</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-06-24 20:59:45</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44371.87482638889</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2218,10 +2186,8 @@
           <t>4783768490</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-06-24 19:49:36</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44371.82611111111</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2290,10 +2256,8 @@
           <t>4783765299</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-06-24 16:54:45</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44371.7046875</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2357,10 +2321,8 @@
           <t>4783768490</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-06-24 16:06:19</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44371.67105324074</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2424,10 +2386,8 @@
           <t>4778293685</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-06-24 16:05:32</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44371.67050925926</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2491,10 +2451,8 @@
           <t>4783765299</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-06-24 16:04:00</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44371.66944444444</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2558,10 +2516,8 @@
           <t>4783613731</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-06-24 15:28:05</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44371.64450231481</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2625,10 +2581,8 @@
           <t>4780854122</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-06-24 14:54:04</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44371.62087962963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2696,10 +2650,8 @@
           <t>4782620002</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-06-24 11:48:18</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44371.491875</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2759,10 +2711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-06-24 11:37:57</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44371.4846875</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2830,10 +2780,8 @@
           <t>4782319617</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-06-24 10:38:32</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44371.44342592593</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2893,10 +2841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-06-24 10:12:22</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44371.42525462963</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2968,10 +2914,8 @@
           <t>4780854122</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-06-24 09:35:16</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44371.39949074074</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3039,10 +2983,8 @@
           <t>4779460058</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-06-24 08:38:35</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44371.36012731482</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3106,10 +3048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-06-24 08:11:49</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44371.34153935185</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3188,10 +3128,8 @@
           <t>4781830887</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-06-24 08:08:07</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44371.33896990741</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3251,10 +3189,8 @@
           <t>4781778617</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-06-24 07:47:50</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44371.32488425926</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3322,10 +3258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-06-24 06:53:47</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44371.28734953704</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3393,10 +3327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-06-24 03:01:59</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44371.12637731482</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3460,10 +3392,8 @@
           <t>4781443323</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-06-24 02:33:50</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44371.10682870371</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3534,10 +3464,8 @@
           <t>4781362075</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-06-24 01:48:13</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44371.07515046297</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3605,10 +3533,8 @@
           <t>4781327111</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-06-24 01:35:18</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44371.06618055556</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3668,10 +3594,8 @@
           <t>4781163628</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-06-24 00:45:58</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44371.03192129629</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3735,10 +3659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-06-24 00:45:18</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44371.03145833333</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3802,10 +3724,8 @@
           <t>4780695807</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-06-23 23:44:51</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44370.98947916667</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3865,10 +3785,8 @@
           <t>4780858513</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-06-23 23:44:15</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44370.9890625</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3936,10 +3854,8 @@
           <t>4780854122</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-06-23 23:43:49</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44370.98876157407</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4007,10 +3923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-06-23 23:43:00</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44370.98819444444</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4071,10 +3985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-06-23 23:32:57</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44370.98121527778</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4146,10 +4058,8 @@
           <t>4780695807</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-06-23 23:20:54</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44370.97284722222</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4213,10 +4123,8 @@
           <t>4780691705</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-06-23 23:16:18</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44370.96965277778</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4276,10 +4184,8 @@
           <t>4780695807</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-06-23 23:16:10</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44370.96956018519</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4339,10 +4245,8 @@
           <t>4779853620</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-06-23 23:15:47</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44370.96929398148</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4402,10 +4306,8 @@
           <t>4780554107</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-06-23 22:54:17</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44370.95436342592</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4473,10 +4375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-06-23 22:44:06</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44370.94729166666</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4536,10 +4436,8 @@
           <t>4780346051</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-06-23 22:19:46</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44370.93039351852</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4603,10 +4501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-06-23 21:48:16</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44370.90851851852</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4666,10 +4562,8 @@
           <t>4780153828</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-06-23 21:48:03</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44370.90836805556</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4733,10 +4627,8 @@
           <t>4780149269</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-06-23 21:47:23</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44370.90790509259</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4800,10 +4692,8 @@
           <t>4780109649</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-06-23 21:40:18</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44370.90298611111</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -4863,10 +4753,8 @@
           <t>4777935049</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-06-23 21:29:50</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44370.89571759259</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -4930,10 +4818,8 @@
           <t>4778057124</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-06-23 21:17:26</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44370.88710648148</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5009,10 +4895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-06-23 21:07:52</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44370.88046296296</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5080,10 +4964,8 @@
           <t>4779853620</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-06-23 20:56:26</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44370.87252314815</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5151,10 +5033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-06-23 20:50:48</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44370.86861111111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5218,10 +5098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-06-23 20:32:28</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44370.85587962963</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5293,10 +5171,8 @@
           <t>4779700194</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-06-23 20:27:17</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44370.85228009259</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5368,10 +5244,8 @@
           <t>4779630151</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-06-23 20:14:41</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44370.84353009259</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5435,10 +5309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-06-23 20:09:16</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44370.83976851852</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5514,10 +5386,8 @@
           <t>4778057124</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-06-23 20:04:25</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44370.83640046296</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5582,10 +5452,8 @@
           <t>4779460058</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:54:58</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44370.82983796296</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -5649,10 +5517,8 @@
           <t>4779460058</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:52:17</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44370.82797453704</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
@@ -5716,10 +5582,8 @@
           <t>4779460058</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:51:18</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44370.82729166667</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5783,10 +5647,8 @@
           <t>4779460058</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:44:48</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44370.82277777778</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -5846,10 +5708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:43:24</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44370.82180555556</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -5917,10 +5777,8 @@
           <t>4778692819</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:38:06</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44370.818125</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -5996,10 +5854,8 @@
           <t>4779395246</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:32:49</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44370.81445601852</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6071,10 +5927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:31:56</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44370.81384259259</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6150,10 +6004,8 @@
           <t>4779370591</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:28:20</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44370.81134259259</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6226,10 +6078,8 @@
           <t>4778692819</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:20:18</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44370.80576388889</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6293,10 +6143,8 @@
           <t>4777935049</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:17:19</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44370.80369212963</v>
       </c>
       <c r="I85" t="n">
         <v>8</v>
@@ -6356,10 +6204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:06:50</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44370.79641203704</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6434,10 +6280,8 @@
           <t>4779198954</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:59:53</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44370.79158564815</v>
       </c>
       <c r="I87" t="n">
         <v>2</v>
@@ -6509,10 +6353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:58:22</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44370.79053240741</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6588,10 +6430,8 @@
           <t>4778057124</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:41:10</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44370.77858796297</v>
       </c>
       <c r="I89" t="n">
         <v>4</v>
@@ -6651,10 +6491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:37:48</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44370.77625</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6722,10 +6560,8 @@
           <t>4779069691</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:37:46</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44370.77622685185</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -6807,10 +6643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:37:27</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44370.77600694444</v>
       </c>
       <c r="I92" t="n">
         <v>24</v>
@@ -6878,10 +6712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:34:55</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44370.77424768519</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -6957,10 +6789,8 @@
           <t>4778692819</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:34:33</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44370.77399305555</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7036,10 +6866,8 @@
           <t>4779036877</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:31:20</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44370.77175925926</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7115,10 +6943,8 @@
           <t>4778991521</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:23:26</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44370.76627314815</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7186,10 +7012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:12:58</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44370.75900462963</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7261,10 +7085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:07:36</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44370.75527777777</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -7328,10 +7150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-06-23 17:47:34</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44370.74136574074</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7391,10 +7211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-06-23 17:44:31</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44370.73924768518</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7462,10 +7280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-06-23 17:33:47</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44370.73179398148</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7525,10 +7341,8 @@
           <t>4778692819</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-06-23 17:28:56</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44370.72842592592</v>
       </c>
       <c r="I102" t="n">
         <v>17</v>
@@ -7604,10 +7418,8 @@
           <t>4778668299</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-06-23 17:23:56</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44370.72495370371</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7679,10 +7491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-06-23 17:20:12</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44370.72236111111</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7746,10 +7556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-06-23 17:12:25</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44370.71695601852</v>
       </c>
       <c r="I105" t="n">
         <v>3</v>
@@ -7825,10 +7633,8 @@
           <t>4778594883</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-06-23 17:09:39</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44370.71503472222</v>
       </c>
       <c r="I106" t="n">
         <v>19</v>
@@ -7888,10 +7694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:52:46</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44370.70331018518</v>
       </c>
       <c r="I107" t="n">
         <v>7</v>
@@ -7967,10 +7771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:45:02</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44370.69793981482</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8046,10 +7848,8 @@
           <t>4778466434</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:40:10</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44370.69456018518</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8113,10 +7913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:32:35</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44370.68929398148</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8176,10 +7974,8 @@
           <t>4778307789</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:31:40</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44370.68865740741</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8243,10 +8039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:30:18</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44370.68770833333</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8318,10 +8112,8 @@
           <t>4778413613</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:29:32</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44370.68717592592</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8393,10 +8185,8 @@
           <t>4778403269</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:26:25</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44370.68501157407</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8464,10 +8254,8 @@
           <t>4778389087</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:23:27</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44370.68295138889</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8535,10 +8323,8 @@
           <t>4778387761</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:22:30</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44370.68229166666</v>
       </c>
       <c r="I116" t="n">
         <v>4</v>
@@ -8610,10 +8396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:21:04</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44370.68129629629</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8677,10 +8461,8 @@
           <t>4778293685</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:19:19</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44370.68008101852</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8756,10 +8538,8 @@
           <t>4777923211</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:17:54</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44370.67909722222</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -8827,10 +8607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:14:02</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44370.67641203704</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -8906,10 +8684,8 @@
           <t>4778323421</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:08:12</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44370.67236111111</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -8973,10 +8749,8 @@
           <t>4778326146</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:06:58</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44370.67150462963</v>
       </c>
       <c r="I122" t="n">
         <v>4</v>
@@ -9044,10 +8818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:06:05</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44370.67089120371</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -9111,10 +8883,8 @@
           <t>4778307789</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:04:11</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44370.66957175926</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9178,10 +8948,8 @@
           <t>4778307211</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:03:44</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44370.66925925926</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9257,10 +9025,8 @@
           <t>4778306677</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:03:21</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44370.66899305556</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9324,10 +9090,8 @@
           <t>4778294121</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:01:32</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44370.66773148148</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9391,10 +9155,8 @@
           <t>4778293685</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:01:13</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44370.66751157407</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9458,10 +9220,8 @@
           <t>4777923211</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:56:50</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44370.66446759259</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9537,10 +9297,8 @@
           <t>4778280343</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:55:03</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44370.66322916667</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9612,10 +9370,8 @@
           <t>4777923211</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:52:26</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44370.66141203704</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -9683,10 +9439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:52:06</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44370.66118055556</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9754,10 +9508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:50:51</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44370.6603125</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -9817,10 +9569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:48:03</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44370.65836805556</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -9896,10 +9646,8 @@
           <t>4778232357</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:44:53</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44370.65616898148</v>
       </c>
       <c r="I135" t="n">
         <v>23</v>
@@ -9975,10 +9723,8 @@
           <t>4777935049</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:42:49</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44370.6547337963</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10050,10 +9796,8 @@
           <t>4778227487</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:41:31</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44370.65383101852</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10117,10 +9861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:40:14</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44370.65293981481</v>
       </c>
       <c r="I138" t="n">
         <v>7</v>
@@ -10192,10 +9934,8 @@
           <t>4778203171</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:37:43</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44370.65119212963</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -10271,10 +10011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:37:02</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44370.65071759259</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10344,10 +10082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:33:09</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44370.64802083333</v>
       </c>
       <c r="I141" t="n">
         <v>134</v>
@@ -10411,10 +10147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:31:34</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44370.6469212963</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10486,10 +10220,8 @@
           <t>4778174716</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:31:04</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44370.64657407408</v>
       </c>
       <c r="I143" t="n">
         <v>4</v>
@@ -10561,10 +10293,8 @@
           <t>4778175590</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:27:59</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44370.64443287037</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10632,10 +10362,8 @@
           <t>4778118919</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:23:50</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44370.64155092592</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -10711,10 +10439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:23:45</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44370.64149305555</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10787,10 +10513,8 @@
           <t>4778118919</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:14:42</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44370.63520833333</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -10862,10 +10586,8 @@
           <t>4777964388</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:14:37</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44370.63515046296</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -10941,10 +10663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:13:03</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44370.6340625</v>
       </c>
       <c r="I149" t="n">
         <v>184</v>
@@ -11020,10 +10740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:12:40</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44370.63379629629</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11092,10 +10810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:11:32</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44370.63300925926</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11163,10 +10879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:03:55</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44370.62771990741</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11230,10 +10944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:02:02</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44370.62641203704</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11301,10 +11013,8 @@
           <t>4778053700</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:58:03</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44370.62364583334</v>
       </c>
       <c r="I154" t="n">
         <v>2</v>
@@ -11372,10 +11082,8 @@
           <t>4778057124</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:57:05</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44370.62297453704</v>
       </c>
       <c r="I155" t="n">
         <v>48</v>
@@ -11443,10 +11151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:55:49</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44370.6220949074</v>
       </c>
       <c r="I156" t="n">
         <v>5</v>
@@ -11514,10 +11220,8 @@
           <t>4778044977</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:55:21</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44370.62177083334</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11593,10 +11297,8 @@
           <t>4778045064</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:52:40</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44370.61990740741</v>
       </c>
       <c r="I158" t="n">
         <v>2</v>
@@ -11664,10 +11366,8 @@
           <t>4778015763</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:52:00</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44370.61944444444</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -11743,10 +11443,8 @@
           <t>4778033911</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:51:44</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44370.61925925926</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11822,10 +11520,8 @@
           <t>4778035617</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:51:35</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44370.61915509259</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -11894,10 +11590,8 @@
           <t>4778035005</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:51:05</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44370.61880787037</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -11973,10 +11667,8 @@
           <t>4778030535</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:49:03</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44370.61739583333</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12040,10 +11732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:46:28</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44370.61560185185</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12107,10 +11797,8 @@
           <t>4778016380</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:45:46</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44370.61511574074</v>
       </c>
       <c r="I165" t="n">
         <v>3</v>
@@ -12178,10 +11866,8 @@
           <t>4778015763</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:45:15</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44370.61475694444</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12257,10 +11943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:45:09</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44370.6146875</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12336,10 +12020,8 @@
           <t>4777904128</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:44:43</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44370.61438657407</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12415,10 +12097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:44:08</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44370.61398148148</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12486,10 +12166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:41:33</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44370.6121875</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12565,10 +12243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:40:18</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44370.61131944445</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12634,10 +12310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:40:08</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44370.6112037037</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12705,10 +12379,8 @@
           <t>4777995910</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:39:55</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44370.61105324074</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12776,10 +12448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:38:41</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44370.61019675926</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -12843,10 +12513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:38:19</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44370.60994212963</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -12906,10 +12574,8 @@
           <t>4777977520</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:37:00</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44370.60902777778</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -12985,10 +12651,8 @@
           <t>4777974338</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:36:18</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44370.60854166667</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13060,10 +12724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:35:41</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44370.60811342593</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13139,10 +12801,8 @@
           <t>4777908236</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:34:58</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44370.60761574074</v>
       </c>
       <c r="I179" t="n">
         <v>20</v>
@@ -13214,10 +12874,8 @@
           <t>4777964388</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:34:30</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44370.60729166667</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13277,10 +12935,8 @@
           <t>4777935049</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:34:12</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44370.60708333334</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13348,10 +13004,8 @@
           <t>4777963398</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:33:42</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44370.60673611111</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13415,10 +13069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:31:53</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44370.60547453703</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -13497,10 +13149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:30:01</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44370.60417824074</v>
       </c>
       <c r="I184" t="n">
         <v>513</v>
@@ -13576,10 +13226,8 @@
           <t>4777935049</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:29:53</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44370.60408564815</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13647,10 +13295,8 @@
           <t>4777908236</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:28:45</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44370.60329861111</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -13718,10 +13364,8 @@
           <t>4777939961</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:27:10</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44370.60219907408</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -13793,10 +13437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:26:01</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44370.60140046296</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -13860,10 +13502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:25:24</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44370.60097222222</v>
       </c>
       <c r="I189" t="n">
         <v>28</v>
@@ -13927,10 +13567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:24:07</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44370.60008101852</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14006,10 +13644,8 @@
           <t>4777935049</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:23:18</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44370.59951388889</v>
       </c>
       <c r="I191" t="n">
         <v>51</v>
@@ -14069,10 +13705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:23:08</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44370.59939814815</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14148,10 +13782,8 @@
           <t>4777923211</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:21:48</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44370.59847222222</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14227,10 +13859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:20:32</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44370.5975925926</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14298,10 +13928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:19:51</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44370.59711805556</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14374,10 +14002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:19:28</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44370.59685185185</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14445,10 +14071,8 @@
           <t>4777904128</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:18:28</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44370.59615740741</v>
       </c>
       <c r="I197" t="n">
         <v>35</v>
@@ -14512,10 +14136,8 @@
           <t>4777908412</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:18:00</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44370.59583333333</v>
       </c>
       <c r="I198" t="n">
         <v>5</v>
@@ -14591,10 +14213,8 @@
           <t>4777910890</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:17:54</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44370.59576388889</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -14658,10 +14278,8 @@
           <t>4777908236</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:17:53</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44370.59575231482</v>
       </c>
       <c r="I200" t="n">
         <v>9</v>
@@ -14729,10 +14347,8 @@
           <t>4777903348</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:17:51</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44370.59572916666</v>
       </c>
       <c r="I201" t="n">
         <v>8</v>
@@ -14796,10 +14412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:17:48</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44370.59569444445</v>
       </c>
       <c r="I202" t="n">
         <v>2</v>
@@ -14859,10 +14473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:17:42</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44370.595625</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -14930,10 +14542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:17:29</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44370.59547453704</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -14997,10 +14607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:17:02</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44370.59516203704</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15076,10 +14684,8 @@
           <t>4777901794</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:16:37</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44370.59487268519</v>
       </c>
       <c r="I206" t="n">
         <v>2</v>
@@ -15145,10 +14751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:16:15</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44370.59461805555</v>
       </c>
       <c r="I207" t="n">
         <v>72</v>
@@ -15208,10 +14812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:16:14</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44370.59460648148</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15287,10 +14889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:15:51</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44370.59434027778</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15362,10 +14962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:15:48</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44370.59430555555</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15433,10 +15031,8 @@
           <t>4777898131</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:15:48</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44370.59430555555</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15504,10 +15100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:15:39</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44370.59420138889</v>
       </c>
       <c r="I212" t="n">
         <v>70</v>
@@ -15571,10 +15165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:15:39</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44370.59420138889</v>
       </c>
       <c r="I213" t="n">
         <v>3</v>
@@ -15646,10 +15238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:15:16</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44370.59393518518</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15717,10 +15307,8 @@
           <t>4777889566</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:14:52</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44370.59365740741</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15792,10 +15380,8 @@
           <t>4777893839</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:14:24</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44370.59333333333</v>
       </c>
       <c r="I216" t="n">
         <v>20</v>
@@ -15867,10 +15453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:14:12</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44370.59319444445</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -15938,10 +15522,8 @@
           <t>4777884682</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:13:10</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44370.59247685185</v>
       </c>
       <c r="I218" t="n">
         <v>21</v>
@@ -16005,10 +15587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:12:41</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44370.59214120371</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -16089,10 +15669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:11:48</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44370.59152777777</v>
       </c>
       <c r="I220" t="n">
         <v>976</v>
@@ -16164,10 +15742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:11:48</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44370.59152777777</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16239,10 +15815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:11:41</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44370.59144675926</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16314,10 +15888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:11:15</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44370.59114583334</v>
       </c>
       <c r="I223" t="n">
         <v>146</v>
@@ -16393,10 +15965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:11:07</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44370.59105324074</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16460,10 +16030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:11:04</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44370.59101851852</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16527,10 +16095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:10:59</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44370.59096064815</v>
       </c>
       <c r="I226" t="n">
         <v>7</v>
@@ -16590,10 +16156,8 @@
           <t>4777879048</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:10:36</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44370.59069444444</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -16661,10 +16225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:09:52</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44370.59018518519</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16728,10 +16290,8 @@
           <t>4777870000</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:09:34</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44370.58997685185</v>
       </c>
       <c r="I229" t="n">
         <v>58</v>
@@ -16795,10 +16355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:09:06</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44370.58965277778</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -16866,10 +16424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:08:56</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44370.58953703703</v>
       </c>
       <c r="I231" t="n">
         <v>34</v>
@@ -16952,10 +16508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:08:22</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44370.58914351852</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17019,10 +16573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:07:19</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44370.58841435185</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17086,10 +16638,8 @@
           <t>4777862974</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:06:01</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44370.58751157407</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17161,10 +16711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:05:57</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44370.58746527778</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17240,10 +16788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:05:52</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44370.58740740741</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17307,10 +16853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:05:26</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44370.58710648148</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17378,10 +16922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:05:21</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44370.58704861111</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17457,10 +16999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:04:16</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44370.58629629629</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17520,10 +17060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:04:15</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44370.58628472222</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17587,10 +17125,8 @@
           <t>4777855610</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:04:10</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44370.58622685185</v>
       </c>
       <c r="I241" t="n">
         <v>3</v>
@@ -17654,10 +17190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:04:01</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44370.58612268518</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17721,10 +17255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:03:41</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44370.5858912037</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -17792,10 +17324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:03:14</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44370.58557870371</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -17859,10 +17389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:03:14</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44370.58557870371</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -17934,10 +17462,8 @@
           <t>4777849264</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:03:14</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44370.58557870371</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18013,10 +17539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:03:03</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44370.58545138889</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18084,10 +17608,8 @@
           <t>4777848953</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:03:00</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44370.58541666667</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18147,10 +17669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:02:59</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44370.58540509259</v>
       </c>
       <c r="I249" t="n">
         <v>323</v>
@@ -18214,10 +17734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:02:49</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44370.58528935185</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18294,10 +17812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:02:47</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44370.58526620371</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18357,10 +17873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:02:25</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44370.58501157408</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18420,10 +17934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:02:02</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44370.58474537037</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18495,10 +18007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:52</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44370.58462962963</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18570,10 +18080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:52</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44370.58462962963</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -18637,10 +18145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:51</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44370.58461805555</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -18708,10 +18214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:51</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44370.58461805555</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -18787,10 +18291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:43</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44370.58452546296</v>
       </c>
       <c r="I258" t="n">
         <v>1876</v>
@@ -18866,10 +18368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:35</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44370.58443287037</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -18945,10 +18445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:34</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44370.5844212963</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19016,10 +18514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:31</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44370.58438657408</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19087,10 +18583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:23</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44370.58429398148</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19166,10 +18660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:21</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44370.58427083334</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19233,10 +18725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:20</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44370.58425925926</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19311,10 +18801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:07</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44370.5841087963</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19378,10 +18866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:04</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44370.58407407408</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19441,10 +18927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:01:03</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44370.5840625</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19508,10 +18992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:00:55</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44370.58396990741</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19575,10 +19057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:00:53</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44370.58394675926</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19650,10 +19130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:00:45</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44370.58385416667</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19722,10 +19200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:00:45</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44370.58385416667</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -19789,10 +19265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:00:29</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44370.58366898148</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
